--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_46.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_46.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9965974339837839</v>
+        <v>0.9181782704068683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7203606906044731</v>
+        <v>0.746292071720938</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7177730381693901</v>
+        <v>0.7317005168876685</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9956328723282946</v>
+        <v>0.7896022371135681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01427984168451332</v>
+        <v>0.3433882955906079</v>
       </c>
       <c r="G2" t="n">
-        <v>1.869949349548512</v>
+        <v>1.696546084619679</v>
       </c>
       <c r="H2" t="n">
-        <v>1.009509478008601</v>
+        <v>0.9596916941949358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03705130460198736</v>
+        <v>0.7590110433268832</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2157342406318711</v>
+        <v>1.640466381684078</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1194982915547888</v>
+        <v>0.5859934262349774</v>
       </c>
       <c r="L2" t="n">
-        <v>1.001991745960712</v>
+        <v>0.7194683556806913</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1245855812218414</v>
+        <v>0.6109403795634198</v>
       </c>
       <c r="N2" t="n">
-        <v>138.4978128173017</v>
+        <v>36.13778682998839</v>
       </c>
       <c r="O2" t="n">
-        <v>217.7247414337347</v>
+        <v>56.85867585274779</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9965827194778059</v>
+        <v>0.9183965859222337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7202388466907494</v>
+        <v>0.7460258942377664</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7177774619444415</v>
+        <v>0.7305530270922057</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9955158431906078</v>
+        <v>0.787003360905373</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01434159531833887</v>
+        <v>0.3424720720752276</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87076412036062</v>
+        <v>1.698326014675283</v>
       </c>
       <c r="H3" t="n">
-        <v>1.009493654421748</v>
+        <v>0.9637961986580247</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03804419570884313</v>
+        <v>0.7683865030047713</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2108287199376451</v>
+        <v>1.628048467864855</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1197563999055536</v>
+        <v>0.5852111346131648</v>
       </c>
       <c r="L3" t="n">
-        <v>1.002000359330065</v>
+        <v>0.7202168660190871</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1248546777794561</v>
+        <v>0.6101247841676998</v>
       </c>
       <c r="N3" t="n">
-        <v>138.4891824009259</v>
+        <v>36.14313033198147</v>
       </c>
       <c r="O3" t="n">
-        <v>217.7161110173589</v>
+        <v>56.86401935474088</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.996566154424295</v>
+        <v>0.9186018308056257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7201173314973703</v>
+        <v>0.7457559958964888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7177787311291071</v>
+        <v>0.7293929511409392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9953958991323961</v>
+        <v>0.7844093953532544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01441111530428551</v>
+        <v>0.341610703206137</v>
       </c>
       <c r="G4" t="n">
-        <v>1.871576693018272</v>
+        <v>1.700130826126174</v>
       </c>
       <c r="H4" t="n">
-        <v>1.009489114621791</v>
+        <v>0.9679457230706365</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03906181739753199</v>
+        <v>0.7777442474648695</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2059730501248692</v>
+        <v>1.615657420734247</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1200463048339494</v>
+        <v>0.5844747241807271</v>
       </c>
       <c r="L4" t="n">
-        <v>1.002010055946754</v>
+        <v>0.7209205627621453</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1251569245608398</v>
+        <v>0.6093570232185734</v>
       </c>
       <c r="N4" t="n">
-        <v>138.4795109480557</v>
+        <v>36.14816696997584</v>
       </c>
       <c r="O4" t="n">
-        <v>217.7064395644887</v>
+        <v>56.86905599273525</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9965478067663489</v>
+        <v>0.9187945561208259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7199961363483961</v>
+        <v>0.7454827578145702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7177767817933016</v>
+        <v>0.728220305560537</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9952730909729893</v>
+        <v>0.7818219955081241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01448811649970775</v>
+        <v>0.3408018762865296</v>
       </c>
       <c r="G5" t="n">
-        <v>1.872387125537516</v>
+        <v>1.701957970438109</v>
       </c>
       <c r="H5" t="n">
-        <v>1.009496087282938</v>
+        <v>0.9721402083178381</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04010373850995395</v>
+        <v>0.7870783061022523</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2011687122973035</v>
+        <v>1.603291436424066</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1203665921246745</v>
+        <v>0.5837823877837782</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00202079603921</v>
+        <v>0.7215813352714033</v>
       </c>
       <c r="M5" t="n">
-        <v>0.125490847144617</v>
+        <v>0.6086352126278726</v>
       </c>
       <c r="N5" t="n">
-        <v>138.4688530346321</v>
+        <v>36.15290795701308</v>
       </c>
       <c r="O5" t="n">
-        <v>217.6957816510651</v>
+        <v>56.87379697977249</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9965277349267603</v>
+        <v>0.9189753922716819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7198752522785441</v>
+        <v>0.7452065287545817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7177721397166913</v>
+        <v>0.7270347094051521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9951475174757631</v>
+        <v>0.7792428037820429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01457235371664239</v>
+        <v>0.3400429456463146</v>
       </c>
       <c r="G6" t="n">
-        <v>1.873195477869237</v>
+        <v>1.70380511543417</v>
       </c>
       <c r="H6" t="n">
-        <v>1.00951269172181</v>
+        <v>0.9763810170208346</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04116912112420783</v>
+        <v>0.7963827539067173</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1964140612462899</v>
+        <v>1.590946163563225</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1207160043931309</v>
+        <v>0.5831320139096418</v>
       </c>
       <c r="L6" t="n">
-        <v>1.002032545408726</v>
+        <v>0.7222013449314808</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1258551346167247</v>
+        <v>0.6079571509914545</v>
       </c>
       <c r="N6" t="n">
-        <v>138.4572582528216</v>
+        <v>36.15736671724801</v>
       </c>
       <c r="O6" t="n">
-        <v>217.6841868692546</v>
+        <v>56.87825574000742</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9965060065798123</v>
+        <v>0.919144762307635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7197547390554895</v>
+        <v>0.744927674767581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7177645230051369</v>
+        <v>0.7258359784933708</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9950194114123737</v>
+        <v>0.7766731184753916</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01466354294060026</v>
+        <v>0.3393321358374872</v>
       </c>
       <c r="G7" t="n">
-        <v>1.874001350346715</v>
+        <v>1.705669813329247</v>
       </c>
       <c r="H7" t="n">
-        <v>1.009539936257398</v>
+        <v>0.9806688079858645</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04225599037393418</v>
+        <v>0.8056529072527677</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1917089558316503</v>
+        <v>1.578619344115062</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1210931168175973</v>
+        <v>0.5825222191792234</v>
       </c>
       <c r="L7" t="n">
-        <v>1.002045264441086</v>
+        <v>0.7227820421976057</v>
       </c>
       <c r="M7" t="n">
-        <v>0.126248301497831</v>
+        <v>0.6073213960369132</v>
       </c>
       <c r="N7" t="n">
-        <v>138.4447818754769</v>
+        <v>36.16155179902431</v>
       </c>
       <c r="O7" t="n">
-        <v>217.6717104919099</v>
+        <v>56.88244082178372</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9964826542697771</v>
+        <v>0.9193031207335652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7196346071538267</v>
+        <v>0.7446465539121121</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7177540634126878</v>
+        <v>0.7246240119604641</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9948887797745737</v>
+        <v>0.7741132100854655</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01476154759023217</v>
+        <v>0.3386675394002937</v>
       </c>
       <c r="G8" t="n">
-        <v>1.874804672926291</v>
+        <v>1.707549669784211</v>
       </c>
       <c r="H8" t="n">
-        <v>1.009577349613106</v>
+        <v>0.9850039420002145</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04336428694015208</v>
+        <v>0.8148877903199786</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1870517499275944</v>
+        <v>1.566308930009451</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1214971093904385</v>
+        <v>0.5819514923086749</v>
       </c>
       <c r="L8" t="n">
-        <v>1.002058934085984</v>
+        <v>0.7233249853722237</v>
       </c>
       <c r="M8" t="n">
-        <v>0.126669492870878</v>
+        <v>0.6067263721419179</v>
       </c>
       <c r="N8" t="n">
-        <v>138.431459230039</v>
+        <v>36.16547272509154</v>
       </c>
       <c r="O8" t="n">
-        <v>217.658387846472</v>
+        <v>56.88636174785095</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9964577530602096</v>
+        <v>0.9194509591411311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7195148608232572</v>
+        <v>0.744363571747185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7177411583469764</v>
+        <v>0.7233985308613871</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9947557422794421</v>
+        <v>0.771564423382472</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01486605263985763</v>
+        <v>0.3380470932297068</v>
       </c>
       <c r="G9" t="n">
-        <v>1.875605417190189</v>
+        <v>1.709441972824091</v>
       </c>
       <c r="H9" t="n">
-        <v>1.009623510284877</v>
+        <v>0.9893874168341363</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04449299512689487</v>
+        <v>0.8240825518427094</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1824434106423926</v>
+        <v>1.554006332198031</v>
       </c>
       <c r="K9" t="n">
-        <v>0.121926423058571</v>
+        <v>0.5814181741480969</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00207351040378</v>
+        <v>0.7238318599124494</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1271170833106647</v>
+        <v>0.6061703495231234</v>
       </c>
       <c r="N9" t="n">
-        <v>138.4173500234578</v>
+        <v>36.16914012824508</v>
       </c>
       <c r="O9" t="n">
-        <v>217.6442786398909</v>
+        <v>56.89002915100449</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9964313305144527</v>
+        <v>0.9195888365101302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7193954857541845</v>
+        <v>0.744079107022166</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7177257793997697</v>
+        <v>0.7221590259099522</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9946203637418476</v>
+        <v>0.7690285721280316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0149769424120213</v>
+        <v>0.3374684514070935</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87640367882675</v>
+        <v>1.711344189750134</v>
       </c>
       <c r="H10" t="n">
-        <v>1.009678519887313</v>
+        <v>0.9938210541747923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04564156503601028</v>
+        <v>0.8332306486663128</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1778878265401501</v>
+        <v>1.541713022673042</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1223803187282224</v>
+        <v>0.5809203485910039</v>
       </c>
       <c r="L10" t="n">
-        <v>1.002088977259833</v>
+        <v>0.7243045823204466</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1275903022586667</v>
+        <v>0.6056513305014239</v>
       </c>
       <c r="N10" t="n">
-        <v>138.4024868661473</v>
+        <v>36.17256650070229</v>
       </c>
       <c r="O10" t="n">
-        <v>217.6294154825804</v>
+        <v>56.8934555234617</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.996403467998369</v>
+        <v>0.9197170076675142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7192765038012562</v>
+        <v>0.7437935386886947</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7177076013281734</v>
+        <v>0.7209058807624787</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9944828743475721</v>
+        <v>0.7665044006175218</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01509387543160445</v>
+        <v>0.3369305444782518</v>
       </c>
       <c r="G11" t="n">
-        <v>1.877199311693844</v>
+        <v>1.713253786510977</v>
       </c>
       <c r="H11" t="n">
-        <v>1.009743541795388</v>
+        <v>0.9983034817057741</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04680804374004459</v>
+        <v>0.8423366107518611</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1733765729509828</v>
+        <v>1.529417022566476</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1228571342316125</v>
+        <v>0.5804571857409053</v>
       </c>
       <c r="L11" t="n">
-        <v>1.002105287025345</v>
+        <v>0.72474402628862</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1280874167851803</v>
+        <v>0.6051684498499174</v>
       </c>
       <c r="N11" t="n">
-        <v>138.3869324359908</v>
+        <v>36.17575693868451</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6138610524239</v>
+        <v>56.89664596144392</v>
       </c>
     </row>
   </sheetData>
